--- a/medicine/Psychotrope/Brasserie_Gruber_(Melun)/Brasserie_Gruber_(Melun).xlsx
+++ b/medicine/Psychotrope/Brasserie_Gruber_(Melun)/Brasserie_Gruber_(Melun).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La brasserie Gruber est une ancienne brasserie installée sur l’emplacement de la brasserie Barthel, rue Camille Flammarion dans le faubourg Saint-Liesne[1]  à Melun, en Seine-et-Marne. 
+La brasserie Gruber est une ancienne brasserie installée sur l’emplacement de la brasserie Barthel, rue Camille Flammarion dans le faubourg Saint-Liesne  à Melun, en Seine-et-Marne. 
 Fondée en 1888, elle est fermée en 1985.
 </t>
         </is>
@@ -513,13 +525,15 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La brasserie est fondée en 1888 par Sophie Gruber[Note 1], veuve de l’industriel  David Gruber, chimiste de formation et diplômé de pharmacie, fondateur de la brasserie Gruber de Koenigshoffen  à Strasbourg. 
 Outre la bière, la brasserie produit également des sodas et de la limonade . Dans la catégorie des boissons fermentées, l’établissement reçoit la médaille d’or aux expositions universelles de 1889 et 1900.
-Dans la seconde moitié du XIXe siècle, l’entreprise, désireuse de s’agrandir et d’accroître son marché,  recherche une nouvelle implantation et acquiert 3 hectares de terrains au sud de Melun à proximité de la gare ferroviaire[2].
+Dans la seconde moitié du XIXe siècle, l’entreprise, désireuse de s’agrandir et d’accroître son marché,  recherche une nouvelle implantation et acquiert 3 hectares de terrains au sud de Melun à proximité de la gare ferroviaire.
 L’entreprise importait par voie ferrée (Ligne PLM) les céréales pour les boissons et plus tard le verre nécessaire à la fabrication des bouteilles. Elle servait aussi pour les exportations.
-L’activité de l’entreprise se poursuit jusqu’en 1943 et, sous différents noms[3] - [Note 2] jusqu’à sa fermeture en  1985. Sur l’emplacement de la brasserie, détruite de 1987 à 1990, sera construit le Tribunal de grande instance qui sera inauguré en 1998. 
+L’activité de l’entreprise se poursuit jusqu’en 1943 et, sous différents noms - [Note 2] jusqu’à sa fermeture en  1985. Sur l’emplacement de la brasserie, détruite de 1987 à 1990, sera construit le Tribunal de grande instance qui sera inauguré en 1998. 
 </t>
         </is>
       </c>
